--- a/Estimates.xlsx
+++ b/Estimates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CRM" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">Dashboard</t>
   </si>
   <si>
+    <t xml:space="preserve">SUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Listing</t>
   </si>
   <si>
@@ -124,15 +127,27 @@
     <t xml:space="preserve">Customer Selection/Addition</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">API – </t>
-    </r>
+    <t xml:space="preserve">API – Customer Onboarding Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI – Customer Onboarding Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approvals, Payment Verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worker – Payment Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worker – Alerts, Send Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worker – Alerts</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -141,47 +156,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Customer Onboarding Integration</t>
+      <t xml:space="preserve">Estimates
+(Man Days)
+</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UI – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Customer Onboarding Integration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Approvals, Payment Verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worker – Payment Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worker – Alerts, Send Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worker – Alerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email Integration</t>
+    <t xml:space="preserve">Email Integration POC</t>
   </si>
   <si>
     <t xml:space="preserve">Whatsapp Integration</t>
@@ -197,10 +178,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,17 +207,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,49 +268,73 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -326,6 +346,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -440,240 +520,317 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <f aca="false">SUM(E2:E10)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="E3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="E5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="E7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="7" t="n">
         <v>0.5</v>
       </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="7" t="n">
         <v>0.5</v>
       </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>2</v>
+      <c r="E11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="7" t="n">
         <v>0.5</v>
       </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>2</v>
+      <c r="E13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="E14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="F15" s="10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="E16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="E17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="E18" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="n">
-        <v>2</v>
+      <c r="E19" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="13" t="n">
+        <f aca="false">SUM(E2:E20)</f>
+        <v>32.5</v>
+      </c>
+      <c r="F22" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="21">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -690,179 +847,218 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7"/>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="3"/>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3"/>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="13" t="n">
+        <f aca="false">SUM(E2:E15)</f>
+        <v>16.5</v>
+      </c>
+      <c r="F17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -879,35 +1075,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:B5"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.93"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="1" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="C2" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="C3" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
